--- a/assets/img/economic-systems-022623.xlsx
+++ b/assets/img/economic-systems-022623.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesmclendon/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533A9C38-6627-9240-B130-71707AAF2A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA586951-F68C-0945-AE60-B41119C386DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="3160" windowWidth="27640" windowHeight="15940" xr2:uid="{0BE0D629-7F60-AC43-9E14-49F8573CDA94}"/>
   </bookViews>
@@ -278,9 +278,6 @@
     <t>1970s - present</t>
   </si>
   <si>
-    <t>Economical Framework</t>
-  </si>
-  <si>
     <t>Coefficient Capitalism</t>
   </si>
   <si>
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>Now</t>
+  </si>
+  <si>
+    <t>Metric</t>
   </si>
 </sst>
 </file>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A9DC2B-2149-4E4F-B5E7-90EF17761E55}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -713,7 +713,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -804,7 +804,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -932,7 +932,7 @@
         <v>37</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -964,7 +964,7 @@
         <v>43</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1156,7 +1156,7 @@
         <v>71</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1188,7 +1188,7 @@
         <v>74</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
